--- a/frontend/static/ModeloOferta.xlsx
+++ b/frontend/static/ModeloOferta.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Oferta</t>
+  </si>
   <si>
     <t>CodigoProveedor</t>
   </si>
@@ -45,12 +48,18 @@
       <b/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -70,11 +79,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -104,20 +116,30 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/static/ModeloOferta.xlsx
+++ b/frontend/static/ModeloOferta.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Oferta</t>
   </si>
@@ -33,12 +33,18 @@
   <si>
     <t>Precio $</t>
   </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>2017-09-09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -47,6 +53,7 @@
     <font>
       <b/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -79,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -88,6 +95,12 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +155,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>120.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15000.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
